--- a/statistics/SPSS/roiHumanBody_Within-PLI_gamma_A/roiHumanBody_Within-PLI_gamma_A.xlsx
+++ b/statistics/SPSS/roiHumanBody_Within-PLI_gamma_A/roiHumanBody_Within-PLI_gamma_A.xlsx
@@ -80,10 +80,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="16.28515625" customWidth="true"/>
-    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="16.42578125" customWidth="true"/>
+    <col min="5" max="5" width="16.42578125" customWidth="true"/>
     <col min="6" max="6" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.019626769626769625</v>
+        <v>0.0098133848133848123</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0041847041847041799</v>
+        <v>0.00209235209235209</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.013639147415238501</v>
+        <v>-0.0068195737076192503</v>
       </c>
       <c r="D2" s="0">
-        <v>0.020559334845049154</v>
+        <v>0.010279667422524577</v>
       </c>
       <c r="E2" s="0">
-        <v>0.017018613000755883</v>
+        <v>0.0085093065003779417</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0032720690615427872</v>
+        <v>0.0016360345307713936</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.013015700107203321</v>
+        <v>0.0065078500536016604</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0076541727802231785</v>
+        <v>0.0038270863901115892</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.024198568316215419</v>
+        <v>-0.012099284158107709</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.038126361655773433</v>
+        <v>-0.019063180827886717</v>
       </c>
       <c r="E3" s="0">
-        <v>0.01384998443821972</v>
+        <v>0.0069249922191098601</v>
       </c>
       <c r="F3" s="0">
-        <v>0.019892986434339843</v>
+        <v>0.0099464932171699216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.00050680933033872555</v>
+        <v>-0.00025340466516936277</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.018492660221983565</v>
+        <v>-0.0092463301109917823</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.024502138537226242</v>
+        <v>-0.012251069268613121</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.021944105277438564</v>
+        <v>-0.010972052638719282</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0067104489619109475</v>
+        <v>0.0033552244809554738</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0011000011000010801</v>
+        <v>-0.00055000055000054004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.024794181937039084</v>
+        <v>0.012397090968519542</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0011290150179038561</v>
+        <v>0.00056450750895192803</v>
       </c>
       <c r="C5" s="0">
-        <v>0.032425835831408539</v>
+        <v>0.01621291791570427</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0057519640852974618</v>
+        <v>0.0028759820426487309</v>
       </c>
       <c r="E5" s="0">
-        <v>0.010513927793339595</v>
+        <v>0.0052569638966697974</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0027728263022380739</v>
+        <v>0.001386413151119037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.027454194120860809</v>
+        <v>0.013727097060430404</v>
       </c>
       <c r="B6" s="0">
-        <v>0.014699607441542917</v>
+        <v>0.0073498037207714584</v>
       </c>
       <c r="C6" s="0">
-        <v>0.059520373806088128</v>
+        <v>0.029760186903044064</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0088183421516754568</v>
+        <v>0.0044091710758377284</v>
       </c>
       <c r="E6" s="0">
-        <v>0.025364139649853901</v>
+        <v>0.01268206982492695</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.017449989672211869</v>
+        <v>-0.0087249948361059343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.018846719974539544</v>
+        <v>0.0094233599872697721</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0168939629723944</v>
+        <v>-0.0084469814861971998</v>
       </c>
       <c r="C7" s="0">
-        <v>0.010209343542676913</v>
+        <v>0.0051046717713384565</v>
       </c>
       <c r="D7" s="0">
-        <v>0.02399848828420259</v>
+        <v>0.011999244142101295</v>
       </c>
       <c r="E7" s="0">
-        <v>0.017413076341647765</v>
+        <v>0.0087065381708238826</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.054270597127739989</v>
+        <v>-0.027135298563869995</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0070175217234040299</v>
+        <v>0.003508760861702015</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0044939628272962218</v>
+        <v>0.0022469814136481109</v>
       </c>
       <c r="C8" s="0">
-        <v>0.03002645502645504</v>
+        <v>0.01501322751322752</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0079817302039524307</v>
+        <v>0.0039908651019762154</v>
       </c>
       <c r="E8" s="0">
-        <v>0.031966660538089137</v>
+        <v>0.015983330269044568</v>
       </c>
       <c r="F8" s="0">
-        <v>0.022936875367430914</v>
+        <v>0.011468437683715457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0010421677088343628</v>
+        <v>-0.00052108385441718141</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.010135810596640038</v>
+        <v>-0.005067905298320019</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.013326542738307467</v>
+        <v>-0.0066632713691537337</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.024040480389686758</v>
+        <v>-0.012020240194843379</v>
       </c>
       <c r="E9" s="0">
-        <v>0.030262946929613566</v>
+        <v>0.015131473464806783</v>
       </c>
       <c r="F9" s="0">
-        <v>0.0085785451282527903</v>
+        <v>0.0042892725641263951</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.019012049264150122</v>
+        <v>0.0095060246320750608</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.030284043441938163</v>
+        <v>-0.015142021720969082</v>
       </c>
       <c r="C10" s="0">
-        <v>0.03973361116218263</v>
+        <v>0.019866805581091315</v>
       </c>
       <c r="D10" s="0">
-        <v>0.0044128762616157668</v>
+        <v>0.0022064381308078834</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0091678980567868884</v>
+        <v>0.0045839490283934442</v>
       </c>
       <c r="F10" s="0">
-        <v>0.012484993997599059</v>
+        <v>0.0062424969987995294</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.035995794329127695</v>
+        <v>0.017997897164563847</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0057087162350320242</v>
+        <v>0.0028543581175160121</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.018661518661518661</v>
+        <v>-0.0093307593307593306</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.02878235378235372</v>
+        <v>-0.01439117689117686</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.015145502645502629</v>
+        <v>-0.0075727513227513144</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.023679509790620862</v>
+        <v>-0.011839754895310431</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.019177216545637615</v>
+        <v>-0.0095886082728188077</v>
       </c>
       <c r="B12" s="0">
-        <v>0.03133886905816731</v>
+        <v>0.015669434529083655</v>
       </c>
       <c r="C12" s="0">
-        <v>0.019106861964004851</v>
+        <v>0.0095534309820024255</v>
       </c>
       <c r="D12" s="0">
-        <v>0.017010780920555357</v>
+        <v>0.0085053904602776786</v>
       </c>
       <c r="E12" s="0">
-        <v>0.038560205226871869</v>
+        <v>0.019280102613435934</v>
       </c>
       <c r="F12" s="0">
-        <v>0.032220865554198869</v>
+        <v>0.016110432777099434</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.025050161015073291</v>
+        <v>-0.012525080507536646</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0061579436579436708</v>
+        <v>-0.0030789718289718354</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0089007240323029646</v>
+        <v>0.0044503620161514823</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.0036375661375661339</v>
+        <v>-0.0018187830687830669</v>
       </c>
       <c r="E13" s="0">
-        <v>0.0097962736851626153</v>
+        <v>0.0048981368425813077</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.0047287020971231719</v>
+        <v>-0.002364351048561586</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.012878978751994619</v>
+        <v>-0.0064394893759973093</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0063932980599646916</v>
+        <v>0.0031966490299823458</v>
       </c>
       <c r="C14" s="0">
-        <v>0.0077424363138649255</v>
+        <v>0.0038712181569324627</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.031771267065384717</v>
+        <v>-0.015885633532692359</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.025883025883025879</v>
+        <v>-0.012941512941512939</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.012606220939554297</v>
+        <v>-0.0063031104697771484</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.010449843783177148</v>
+        <v>0.0052249218915885742</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.048073867518311955</v>
+        <v>-0.024036933759155978</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.018522496717985448</v>
+        <v>-0.0092612483589927241</v>
       </c>
       <c r="D15" s="0">
-        <v>0.017116740800951324</v>
+        <v>0.0085583704004756622</v>
       </c>
       <c r="E15" s="0">
-        <v>0.010039706118137481</v>
+        <v>0.0050198530590687407</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.029515281896234244</v>
+        <v>-0.014757640948117122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.018476810143476824</v>
+        <v>0.009238405071738412</v>
       </c>
       <c r="B16" s="0">
-        <v>0.008744082428292943</v>
+        <v>0.0043720412141464715</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0015418348751682354</v>
+        <v>0.00077091743758411768</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.0018796992481203145</v>
+        <v>-0.00093984962406015726</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.011684845018178402</v>
+        <v>-0.0058424225090892012</v>
       </c>
       <c r="F16" s="0">
-        <v>0.014481101082408299</v>
+        <v>0.0072405505412041493</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0028659611992944978</v>
+        <v>-0.0014329805996472489</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.017416557266181326</v>
+        <v>-0.0087082786330906631</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.0077935077935077646</v>
+        <v>-0.0038967538967538823</v>
       </c>
       <c r="D17" s="0">
-        <v>-8.6166752833433113e-05</v>
+        <v>-4.3083376416716557e-05</v>
       </c>
       <c r="E17" s="0">
-        <v>0.031674531674531659</v>
+        <v>0.015837265837265829</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.0086852725741614623</v>
+        <v>-0.0043426362870807311</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016642686964324443</v>
+        <v>-0.0083213434821622217</v>
       </c>
       <c r="B18" s="0">
-        <v>0.012296614552253643</v>
+        <v>0.0061483072761268215</v>
       </c>
       <c r="C18" s="0">
-        <v>0.020079019262025821</v>
+        <v>0.010039509631012911</v>
       </c>
       <c r="D18" s="0">
-        <v>0.013273777979660312</v>
+        <v>0.0066368889898301558</v>
       </c>
       <c r="E18" s="0">
-        <v>0.018088099437305827</v>
+        <v>0.0090440497186529134</v>
       </c>
       <c r="F18" s="0">
-        <v>0.01177038716721257</v>
+        <v>0.0058851935836062852</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.007222642143277086</v>
+        <v>0.003611321071638543</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.027371669915529556</v>
+        <v>-0.013685834957764778</v>
       </c>
       <c r="C19" s="0">
-        <v>0.018192795970573744</v>
+        <v>0.009096397985286872</v>
       </c>
       <c r="D19" s="0">
-        <v>0.016749389814405297</v>
+        <v>0.0083746949072026483</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.011473006711101935</v>
+        <v>-0.0057365033555509676</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.037975763782215427</v>
+        <v>-0.018987881891107714</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.018861561718704623</v>
+        <v>0.0094307808593523113</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0065892960629802266</v>
+        <v>0.0032946480314901133</v>
       </c>
       <c r="C20" s="0">
-        <v>0.0085639668973002403</v>
+        <v>0.0042819834486501201</v>
       </c>
       <c r="D20" s="0">
-        <v>0.048263464930131617</v>
+        <v>0.024131732465065808</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.0055623388956722031</v>
+        <v>-0.0027811694478361015</v>
       </c>
       <c r="F20" s="0">
-        <v>0.0046929883064336375</v>
+        <v>0.0023464941532168188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.055810389143722494</v>
+        <v>-0.027905194571861247</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.015098287028111612</v>
+        <v>-0.0075491435140558061</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.017464350797684103</v>
+        <v>-0.0087321753988420514</v>
       </c>
       <c r="D21" s="0">
-        <v>0.012458139651122149</v>
+        <v>0.0062290698255610746</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.0013401559454191136</v>
+        <v>-0.00067007797270955682</v>
       </c>
       <c r="F21" s="0">
-        <v>0.008140008140008162</v>
+        <v>0.004070004070004081</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.00079911844617726324</v>
+        <v>0.00039955922308863162</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.0093694885361552266</v>
+        <v>-0.0046847442680776133</v>
       </c>
       <c r="C22" s="0">
-        <v>0.0054763908930575284</v>
+        <v>0.0027381954465287642</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.013141513915507719</v>
+        <v>-0.0065707569577538594</v>
       </c>
       <c r="E22" s="0">
-        <v>0.010128495842781582</v>
+        <v>0.0050642479213907909</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.013857111079333323</v>
+        <v>-0.0069285555396666615</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0053366858922414551</v>
+        <v>-0.0026683429461207275</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.029396743682457982</v>
+        <v>-0.014698371841228991</v>
       </c>
       <c r="C23" s="0">
-        <v>0.049922102553681541</v>
+        <v>0.024961051276840771</v>
       </c>
       <c r="D23" s="0">
-        <v>0.0085745085745085603</v>
+        <v>0.0042872542872542801</v>
       </c>
       <c r="E23" s="0">
-        <v>0.0077690472427314472</v>
+        <v>0.0038845236213657236</v>
       </c>
       <c r="F23" s="0">
-        <v>0.018382352941176433</v>
+        <v>0.0091911764705882165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.013227513227513213</v>
+        <v>0.0066137566137566065</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.035981156595191716</v>
+        <v>-0.017990578297595858</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.014855514855514895</v>
+        <v>-0.0074277574277574476</v>
       </c>
       <c r="D24" s="0">
-        <v>0.005291005291005263</v>
+        <v>0.0026455026455026315</v>
       </c>
       <c r="E24" s="0">
-        <v>0.014364615241808223</v>
+        <v>0.0071823076209041117</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.0077776349706174391</v>
+        <v>-0.0038888174853087196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0034566586290724344</v>
+        <v>-0.0017283293145362172</v>
       </c>
       <c r="B25" s="0">
-        <v>0.027670527670527661</v>
+        <v>0.013835263835263831</v>
       </c>
       <c r="C25" s="0">
-        <v>0.0015275015275015152</v>
+        <v>0.00076375076375075762</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0081510081510081239</v>
+        <v>0.004075504075504062</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.012309031356650402</v>
+        <v>-0.0061545156783252009</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.011565136565136552</v>
+        <v>-0.0057825682825682762</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0021504378229524612</v>
+        <v>-0.0010752189114762306</v>
       </c>
       <c r="B26" s="0">
-        <v>0.026389654961083503</v>
+        <v>0.013194827480541751</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.024856407209348369</v>
+        <v>-0.012428203604674185</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0055177626606198182</v>
+        <v>0.0027588813303099091</v>
       </c>
       <c r="E26" s="0">
-        <v>0.0056414778637001173</v>
+        <v>0.0028207389318500586</v>
       </c>
       <c r="F26" s="0">
-        <v>0.032286371338658942</v>
+        <v>0.016143185669329471</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.017659890466908024</v>
+        <v>-0.0088299452334540118</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.00026300318697985992</v>
+        <v>-0.00013150159348992996</v>
       </c>
       <c r="C27" s="0">
-        <v>0.017924046495475021</v>
+        <v>0.0089620232477375106</v>
       </c>
       <c r="D27" s="0">
-        <v>0.011011011011010985</v>
+        <v>0.0055055055055054924</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.031610364943698288</v>
+        <v>-0.015805182471849144</v>
       </c>
       <c r="F27" s="0">
-        <v>0.0064350064350064268</v>
+        <v>0.0032175032175032134</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.00036533131771226968</v>
+        <v>0.00018266565885613484</v>
       </c>
       <c r="B28" s="0">
-        <v>0.006315070831199851</v>
+        <v>0.0031575354155999255</v>
       </c>
       <c r="C28" s="0">
-        <v>0.0052830608386164046</v>
+        <v>0.0026415304193082023</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0061602418745275722</v>
+        <v>-0.0030801209372637861</v>
       </c>
       <c r="E28" s="0">
-        <v>0.0086240947992100581</v>
+        <v>0.004312047399605029</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.0082477435418611689</v>
+        <v>-0.0041238717709305844</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.015594541910331342</v>
+        <v>-0.0077972709551656708</v>
       </c>
       <c r="B29" s="0">
-        <v>0.00092216758883427452</v>
+        <v>0.00046108379441713726</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.01905476905476905</v>
+        <v>-0.0095273845273845248</v>
       </c>
       <c r="D29" s="0">
-        <v>0.00019247465067900871</v>
+        <v>9.6237325339504354e-05</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.027402913117198849</v>
+        <v>-0.013701456558599424</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.0025025025025025294</v>
+        <v>-0.0012512512512512647</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.015808665808665828</v>
+        <v>0.0079043329043329141</v>
       </c>
       <c r="B30" s="0">
-        <v>0.010033247533247525</v>
+        <v>0.0050166237666237623</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.014168930835597532</v>
+        <v>-0.0070844654177987659</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.031138281138281154</v>
+        <v>-0.015569140569140577</v>
       </c>
       <c r="E30" s="0">
-        <v>0.018518518518518573</v>
+        <v>0.0092592592592592865</v>
       </c>
       <c r="F30" s="0">
-        <v>0.012023301496985717</v>
+        <v>0.0060116507484928583</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/SPSS/roiHumanBody_Within-PLI_gamma_A/roiHumanBody_Within-PLI_gamma_A.xlsx
+++ b/statistics/SPSS/roiHumanBody_Within-PLI_gamma_A/roiHumanBody_Within-PLI_gamma_A.xlsx
@@ -80,10 +80,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
-    <col min="4" max="4" width="16.42578125" customWidth="true"/>
-    <col min="5" max="5" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.42578125" customWidth="true"/>
+    <col min="4" max="4" width="16.28515625" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
     <col min="6" max="6" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0098133848133848123</v>
+        <v>0.019626769626769625</v>
       </c>
       <c r="B2" s="0">
-        <v>0.00209235209235209</v>
+        <v>0.0041847041847041799</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.0068195737076192503</v>
+        <v>-0.013639147415238501</v>
       </c>
       <c r="D2" s="0">
-        <v>0.010279667422524577</v>
+        <v>0.020559334845049154</v>
       </c>
       <c r="E2" s="0">
-        <v>0.0085093065003779417</v>
+        <v>0.017018613000755883</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0016360345307713936</v>
+        <v>0.0032720690615427872</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0065078500536016604</v>
+        <v>0.013015700107203321</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0038270863901115892</v>
+        <v>0.0076541727802231785</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.012099284158107709</v>
+        <v>-0.024198568316215419</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.019063180827886717</v>
+        <v>-0.038126361655773433</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0069249922191098601</v>
+        <v>0.01384998443821972</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0099464932171699216</v>
+        <v>0.019892986434339843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.00025340466516936277</v>
+        <v>-0.00050680933033872555</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0092463301109917823</v>
+        <v>-0.018492660221983565</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.012251069268613121</v>
+        <v>-0.024502138537226242</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.010972052638719282</v>
+        <v>-0.021944105277438564</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0033552244809554738</v>
+        <v>0.0067104489619109475</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00055000055000054004</v>
+        <v>-0.0011000011000010801</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.012397090968519542</v>
+        <v>0.024794181937039084</v>
       </c>
       <c r="B5" s="0">
-        <v>0.00056450750895192803</v>
+        <v>0.0011290150179038561</v>
       </c>
       <c r="C5" s="0">
-        <v>0.01621291791570427</v>
+        <v>0.032425835831408539</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0028759820426487309</v>
+        <v>0.0057519640852974618</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0052569638966697974</v>
+        <v>0.010513927793339595</v>
       </c>
       <c r="F5" s="0">
-        <v>0.001386413151119037</v>
+        <v>0.0027728263022380739</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.013727097060430404</v>
+        <v>0.027454194120860809</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0073498037207714584</v>
+        <v>0.014699607441542917</v>
       </c>
       <c r="C6" s="0">
-        <v>0.029760186903044064</v>
+        <v>0.059520373806088128</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0044091710758377284</v>
+        <v>0.0088183421516754568</v>
       </c>
       <c r="E6" s="0">
-        <v>0.01268206982492695</v>
+        <v>0.025364139649853901</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0087249948361059343</v>
+        <v>-0.017449989672211869</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0094233599872697721</v>
+        <v>0.018846719974539544</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0084469814861971998</v>
+        <v>-0.0168939629723944</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0051046717713384565</v>
+        <v>0.010209343542676913</v>
       </c>
       <c r="D7" s="0">
-        <v>0.011999244142101295</v>
+        <v>0.02399848828420259</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0087065381708238826</v>
+        <v>0.017413076341647765</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.027135298563869995</v>
+        <v>-0.054270597127739989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.003508760861702015</v>
+        <v>0.0070175217234040299</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0022469814136481109</v>
+        <v>0.0044939628272962218</v>
       </c>
       <c r="C8" s="0">
-        <v>0.01501322751322752</v>
+        <v>0.03002645502645504</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0039908651019762154</v>
+        <v>0.0079817302039524307</v>
       </c>
       <c r="E8" s="0">
-        <v>0.015983330269044568</v>
+        <v>0.031966660538089137</v>
       </c>
       <c r="F8" s="0">
-        <v>0.011468437683715457</v>
+        <v>0.022936875367430914</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.00052108385441718141</v>
+        <v>-0.0010421677088343628</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.005067905298320019</v>
+        <v>-0.010135810596640038</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.0066632713691537337</v>
+        <v>-0.013326542738307467</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.012020240194843379</v>
+        <v>-0.024040480389686758</v>
       </c>
       <c r="E9" s="0">
-        <v>0.015131473464806783</v>
+        <v>0.030262946929613566</v>
       </c>
       <c r="F9" s="0">
-        <v>0.0042892725641263951</v>
+        <v>0.0085785451282527903</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0095060246320750608</v>
+        <v>0.019012049264150122</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.015142021720969082</v>
+        <v>-0.030284043441938163</v>
       </c>
       <c r="C10" s="0">
-        <v>0.019866805581091315</v>
+        <v>0.03973361116218263</v>
       </c>
       <c r="D10" s="0">
-        <v>0.0022064381308078834</v>
+        <v>0.0044128762616157668</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0045839490283934442</v>
+        <v>0.0091678980567868884</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0062424969987995294</v>
+        <v>0.012484993997599059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.017997897164563847</v>
+        <v>0.035995794329127695</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0028543581175160121</v>
+        <v>0.0057087162350320242</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.0093307593307593306</v>
+        <v>-0.018661518661518661</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.01439117689117686</v>
+        <v>-0.02878235378235372</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0075727513227513144</v>
+        <v>-0.015145502645502629</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.011839754895310431</v>
+        <v>-0.023679509790620862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0095886082728188077</v>
+        <v>-0.019177216545637615</v>
       </c>
       <c r="B12" s="0">
-        <v>0.015669434529083655</v>
+        <v>0.03133886905816731</v>
       </c>
       <c r="C12" s="0">
-        <v>0.0095534309820024255</v>
+        <v>0.019106861964004851</v>
       </c>
       <c r="D12" s="0">
-        <v>0.0085053904602776786</v>
+        <v>0.017010780920555357</v>
       </c>
       <c r="E12" s="0">
-        <v>0.019280102613435934</v>
+        <v>0.038560205226871869</v>
       </c>
       <c r="F12" s="0">
-        <v>0.016110432777099434</v>
+        <v>0.032220865554198869</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.012525080507536646</v>
+        <v>-0.025050161015073291</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0030789718289718354</v>
+        <v>-0.0061579436579436708</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0044503620161514823</v>
+        <v>0.0089007240323029646</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.0018187830687830669</v>
+        <v>-0.0036375661375661339</v>
       </c>
       <c r="E13" s="0">
-        <v>0.0048981368425813077</v>
+        <v>0.0097962736851626153</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.002364351048561586</v>
+        <v>-0.0047287020971231719</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0064394893759973093</v>
+        <v>-0.012878978751994619</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0031966490299823458</v>
+        <v>0.0063932980599646916</v>
       </c>
       <c r="C14" s="0">
-        <v>0.0038712181569324627</v>
+        <v>0.0077424363138649255</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.015885633532692359</v>
+        <v>-0.031771267065384717</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.012941512941512939</v>
+        <v>-0.025883025883025879</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0063031104697771484</v>
+        <v>-0.012606220939554297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0052249218915885742</v>
+        <v>0.010449843783177148</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.024036933759155978</v>
+        <v>-0.048073867518311955</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.0092612483589927241</v>
+        <v>-0.018522496717985448</v>
       </c>
       <c r="D15" s="0">
-        <v>0.0085583704004756622</v>
+        <v>0.017116740800951324</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0050198530590687407</v>
+        <v>0.010039706118137481</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.014757640948117122</v>
+        <v>-0.029515281896234244</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.009238405071738412</v>
+        <v>0.018476810143476824</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0043720412141464715</v>
+        <v>0.008744082428292943</v>
       </c>
       <c r="C16" s="0">
-        <v>0.00077091743758411768</v>
+        <v>0.0015418348751682354</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.00093984962406015726</v>
+        <v>-0.0018796992481203145</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.0058424225090892012</v>
+        <v>-0.011684845018178402</v>
       </c>
       <c r="F16" s="0">
-        <v>0.0072405505412041493</v>
+        <v>0.014481101082408299</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0014329805996472489</v>
+        <v>-0.0028659611992944978</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.0087082786330906631</v>
+        <v>-0.017416557266181326</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.0038967538967538823</v>
+        <v>-0.0077935077935077646</v>
       </c>
       <c r="D17" s="0">
-        <v>-4.3083376416716557e-05</v>
+        <v>-8.6166752833433113e-05</v>
       </c>
       <c r="E17" s="0">
-        <v>0.015837265837265829</v>
+        <v>0.031674531674531659</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.0043426362870807311</v>
+        <v>-0.0086852725741614623</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0083213434821622217</v>
+        <v>-0.016642686964324443</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0061483072761268215</v>
+        <v>0.012296614552253643</v>
       </c>
       <c r="C18" s="0">
-        <v>0.010039509631012911</v>
+        <v>0.020079019262025821</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0066368889898301558</v>
+        <v>0.013273777979660312</v>
       </c>
       <c r="E18" s="0">
-        <v>0.0090440497186529134</v>
+        <v>0.018088099437305827</v>
       </c>
       <c r="F18" s="0">
-        <v>0.0058851935836062852</v>
+        <v>0.01177038716721257</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.003611321071638543</v>
+        <v>0.007222642143277086</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.013685834957764778</v>
+        <v>-0.027371669915529556</v>
       </c>
       <c r="C19" s="0">
-        <v>0.009096397985286872</v>
+        <v>0.018192795970573744</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0083746949072026483</v>
+        <v>0.016749389814405297</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.0057365033555509676</v>
+        <v>-0.011473006711101935</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.018987881891107714</v>
+        <v>-0.037975763782215427</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0094307808593523113</v>
+        <v>0.018861561718704623</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0032946480314901133</v>
+        <v>0.0065892960629802266</v>
       </c>
       <c r="C20" s="0">
-        <v>0.0042819834486501201</v>
+        <v>0.0085639668973002403</v>
       </c>
       <c r="D20" s="0">
-        <v>0.024131732465065808</v>
+        <v>0.048263464930131617</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.0027811694478361015</v>
+        <v>-0.0055623388956722031</v>
       </c>
       <c r="F20" s="0">
-        <v>0.0023464941532168188</v>
+        <v>0.0046929883064336375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.027905194571861247</v>
+        <v>-0.055810389143722494</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.0075491435140558061</v>
+        <v>-0.015098287028111612</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.0087321753988420514</v>
+        <v>-0.017464350797684103</v>
       </c>
       <c r="D21" s="0">
-        <v>0.0062290698255610746</v>
+        <v>0.012458139651122149</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.00067007797270955682</v>
+        <v>-0.0013401559454191136</v>
       </c>
       <c r="F21" s="0">
-        <v>0.004070004070004081</v>
+        <v>0.008140008140008162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.00039955922308863162</v>
+        <v>0.00079911844617726324</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.0046847442680776133</v>
+        <v>-0.0093694885361552266</v>
       </c>
       <c r="C22" s="0">
-        <v>0.0027381954465287642</v>
+        <v>0.0054763908930575284</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0065707569577538594</v>
+        <v>-0.013141513915507719</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0050642479213907909</v>
+        <v>0.010128495842781582</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.0069285555396666615</v>
+        <v>-0.013857111079333323</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0026683429461207275</v>
+        <v>-0.0053366858922414551</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.014698371841228991</v>
+        <v>-0.029396743682457982</v>
       </c>
       <c r="C23" s="0">
-        <v>0.024961051276840771</v>
+        <v>0.049922102553681541</v>
       </c>
       <c r="D23" s="0">
-        <v>0.0042872542872542801</v>
+        <v>0.0085745085745085603</v>
       </c>
       <c r="E23" s="0">
-        <v>0.0038845236213657236</v>
+        <v>0.0077690472427314472</v>
       </c>
       <c r="F23" s="0">
-        <v>0.0091911764705882165</v>
+        <v>0.018382352941176433</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0066137566137566065</v>
+        <v>0.013227513227513213</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.017990578297595858</v>
+        <v>-0.035981156595191716</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.0074277574277574476</v>
+        <v>-0.014855514855514895</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0026455026455026315</v>
+        <v>0.005291005291005263</v>
       </c>
       <c r="E24" s="0">
-        <v>0.0071823076209041117</v>
+        <v>0.014364615241808223</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.0038888174853087196</v>
+        <v>-0.0077776349706174391</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0017283293145362172</v>
+        <v>-0.0034566586290724344</v>
       </c>
       <c r="B25" s="0">
-        <v>0.013835263835263831</v>
+        <v>0.027670527670527661</v>
       </c>
       <c r="C25" s="0">
-        <v>0.00076375076375075762</v>
+        <v>0.0015275015275015152</v>
       </c>
       <c r="D25" s="0">
-        <v>0.004075504075504062</v>
+        <v>0.0081510081510081239</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.0061545156783252009</v>
+        <v>-0.012309031356650402</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.0057825682825682762</v>
+        <v>-0.011565136565136552</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0010752189114762306</v>
+        <v>-0.0021504378229524612</v>
       </c>
       <c r="B26" s="0">
-        <v>0.013194827480541751</v>
+        <v>0.026389654961083503</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.012428203604674185</v>
+        <v>-0.024856407209348369</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0027588813303099091</v>
+        <v>0.0055177626606198182</v>
       </c>
       <c r="E26" s="0">
-        <v>0.0028207389318500586</v>
+        <v>0.0056414778637001173</v>
       </c>
       <c r="F26" s="0">
-        <v>0.016143185669329471</v>
+        <v>0.032286371338658942</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0088299452334540118</v>
+        <v>-0.017659890466908024</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.00013150159348992996</v>
+        <v>-0.00026300318697985992</v>
       </c>
       <c r="C27" s="0">
-        <v>0.0089620232477375106</v>
+        <v>0.017924046495475021</v>
       </c>
       <c r="D27" s="0">
-        <v>0.0055055055055054924</v>
+        <v>0.011011011011010985</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.015805182471849144</v>
+        <v>-0.031610364943698288</v>
       </c>
       <c r="F27" s="0">
-        <v>0.0032175032175032134</v>
+        <v>0.0064350064350064268</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.00018266565885613484</v>
+        <v>0.00036533131771226968</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0031575354155999255</v>
+        <v>0.006315070831199851</v>
       </c>
       <c r="C28" s="0">
-        <v>0.0026415304193082023</v>
+        <v>0.0052830608386164046</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0030801209372637861</v>
+        <v>-0.0061602418745275722</v>
       </c>
       <c r="E28" s="0">
-        <v>0.004312047399605029</v>
+        <v>0.0086240947992100581</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.0041238717709305844</v>
+        <v>-0.0082477435418611689</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0077972709551656708</v>
+        <v>-0.015594541910331342</v>
       </c>
       <c r="B29" s="0">
-        <v>0.00046108379441713726</v>
+        <v>0.00092216758883427452</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.0095273845273845248</v>
+        <v>-0.01905476905476905</v>
       </c>
       <c r="D29" s="0">
-        <v>9.6237325339504354e-05</v>
+        <v>0.00019247465067900871</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.013701456558599424</v>
+        <v>-0.027402913117198849</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.0012512512512512647</v>
+        <v>-0.0025025025025025294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0079043329043329141</v>
+        <v>0.015808665808665828</v>
       </c>
       <c r="B30" s="0">
-        <v>0.0050166237666237623</v>
+        <v>0.010033247533247525</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.0070844654177987659</v>
+        <v>-0.014168930835597532</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.015569140569140577</v>
+        <v>-0.031138281138281154</v>
       </c>
       <c r="E30" s="0">
-        <v>0.0092592592592592865</v>
+        <v>0.018518518518518573</v>
       </c>
       <c r="F30" s="0">
-        <v>0.0060116507484928583</v>
+        <v>0.012023301496985717</v>
       </c>
     </row>
   </sheetData>
